--- a/biology/Médecine/Max_Sänger/Max_Sänger.xlsx
+++ b/biology/Médecine/Max_Sänger/Max_Sänger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Max_S%C3%A4nger</t>
+          <t>Max_Sänger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Sänger, né le 14 mars 1853 à Bayreuth et mort le 12 janvier 1903 à Bubentsch-Prague, est un gynécologue et obstétricien allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Max_S%C3%A4nger</t>
+          <t>Max_Sänger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Sänger fait des études de médecine de 1871 à 1876 à Wurtzbourg et Leipzig. Il obtient son doctorat de médecine en 1876 avec une dissertation sur les « Mécanismes des broncho- et pneumorrhagies dans la tuberculose pulmonaire ». Il est nommé assistant à l’institut d’anatomopathologie puis à la policlinique médicale de Leipzig sous la direction de Ernst L. Wagner (de) (1829-1888) jusque 1878. Il poursuit ensuite comme assistant à la clinique universitaire gynécologique de Leipzig sous la direction de Carl Siegmund Franz Credé (de) (1819-1892). En 1881 il publie « La césarienne sur fibrome utérin ainsi qu’une comparaison des méthodes de la césarienne  avec l’opération de Porro ». En 1890 il est nommé professeur  agrégé d’obstétrique et gynécologie à la faculté de médecine de l’université de Leipzig.
 À cette époque prévalait la méthode dite de Porro qui préconisait l’hystérectomie (ablation de l'utérus) après extraction de l’enfant par crainte des hémorragies utérines lors des césariennes. La première césarienne conservatrice est réalisée le 25 septembre 1881 à Meckesheim (grand-duché de Bade) par Ferdinand Kehrer. En 1882 Sänger introduit la césarienne avec double suture de l’utérus, qui fut rapidement adoptée en Europe (en France, originellement par Julien Potocki) et aux États-Unis car elle permit de faire chuter de 90% la mortalité maternelle.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Max_S%C3%A4nger</t>
+          <t>Max_Sänger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mécanismes des broncho- et pneumorrhagies de la tuberculose pulmonaire, thèse de doctorat, université de Leipzig, 1876
 La césarienne sur fibrome utérin ainsi qu'une comparaison des méthodes de la césarienne avec l’opération de Porro : critiques, études et propositions pour l'amélioration de la césarienne, thèse d'habilitation, université de Leipzig, 1881
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Max_S%C3%A4nger</t>
+          <t>Max_Sänger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Comité médical royal de Saxe (1897)</t>
         </is>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Max_S%C3%A4nger</t>
+          <t>Max_Sänger</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de 1re classe de l'ordre de Saint-Olaf</t>
         </is>
